--- a/count_degree.xlsx
+++ b/count_degree.xlsx
@@ -131,8 +131,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -149,16 +149,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -218,49 +228,64 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:trendline>
+            <c:name>linear regression</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Tabelle1!$B$2:$B$12</c:f>
               <c:numCache>
@@ -301,7 +326,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -318,11 +343,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="476566904"/>
         <c:axId val="476563296"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="476566904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -368,11 +392,8 @@
         </c:txPr>
         <c:crossAx val="476563296"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="476563296"/>
         <c:scaling>
@@ -427,7 +448,7 @@
         </c:txPr>
         <c:crossAx val="476566904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1066,15 +1087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>502443</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>30955</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502443</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>59530</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1402,7 +1423,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1417,7 +1438,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>40</v>
+        <v>-50</v>
       </c>
       <c r="B2">
         <v>-3281</v>
@@ -1425,7 +1446,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>50</v>
+        <v>-40</v>
       </c>
       <c r="B3">
         <v>-2684</v>
@@ -1433,7 +1454,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>60</v>
+        <v>-30</v>
       </c>
       <c r="B4">
         <v>-1743</v>
@@ -1441,7 +1462,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>70</v>
+        <v>-20</v>
       </c>
       <c r="B5">
         <v>-1171</v>
@@ -1449,7 +1470,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>80</v>
+        <v>-10</v>
       </c>
       <c r="B6">
         <v>-719</v>
@@ -1457,7 +1478,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>152</v>
@@ -1465,7 +1486,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>808</v>
@@ -1473,7 +1494,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1145</v>
@@ -1481,7 +1502,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>2119</v>
@@ -1489,7 +1510,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>2817</v>
@@ -1497,7 +1518,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>3728</v>
